--- a/M模型表(1).xlsx
+++ b/M模型表(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -129,13 +129,13 @@
     <t>price8</t>
   </si>
   <si>
-    <t>4A楼</t>
+    <t>Base_4A</t>
   </si>
   <si>
     <t>这是一个描述</t>
   </si>
   <si>
-    <t>p1001</t>
+    <t>icon_4A</t>
   </si>
   <si>
     <t>{8,16,24,32,48}</t>
@@ -144,10 +144,10 @@
     <t>m1001</t>
   </si>
   <si>
-    <t>9A楼</t>
+    <t>Base_9A</t>
   </si>
   <si>
-    <t>p1002</t>
+    <t>icon_9A</t>
   </si>
   <si>
     <t>{32,40,48,56,64}</t>
@@ -156,19 +156,19 @@
     <t>m1002</t>
   </si>
   <si>
-    <t>12A楼</t>
+    <t>Base_12A</t>
   </si>
   <si>
-    <t>p1003</t>
+    <t>icon_12A</t>
   </si>
   <si>
     <t>m1003</t>
   </si>
   <si>
-    <t>10A楼</t>
+    <t>Base_10A</t>
   </si>
   <si>
-    <t>p1004</t>
+    <t>icon_10A</t>
   </si>
   <si>
     <t>{8,16,24,32,40}</t>
@@ -177,10 +177,10 @@
     <t>m1004</t>
   </si>
   <si>
-    <t>16A楼</t>
+    <t>Base_16A</t>
   </si>
   <si>
-    <t>p1005</t>
+    <t>icon_16A</t>
   </si>
   <si>
     <t>{40,48,56,64,72}</t>
@@ -189,10 +189,10 @@
     <t>m1005</t>
   </si>
   <si>
-    <t>2A楼</t>
+    <t>Base_2A</t>
   </si>
   <si>
-    <t>p1006</t>
+    <t>icon_2A</t>
   </si>
   <si>
     <t>{4,8,12,16,20}</t>
@@ -201,10 +201,10 @@
     <t>m1006</t>
   </si>
   <si>
-    <t>5A楼</t>
+    <t>Base_5A</t>
   </si>
   <si>
-    <t>p1007</t>
+    <t>icon_5A</t>
   </si>
   <si>
     <t>{16,24,32,40,48}</t>
@@ -213,19 +213,19 @@
     <t>m1007</t>
   </si>
   <si>
-    <t>7A楼</t>
+    <t>Base_7A</t>
   </si>
   <si>
-    <t>p1008</t>
+    <t>icon_7A</t>
   </si>
   <si>
     <t>m1008</t>
   </si>
   <si>
-    <t>8A楼</t>
+    <t>Base_8A</t>
   </si>
   <si>
-    <t>p1009</t>
+    <t>icon_8A</t>
   </si>
   <si>
     <t>{24,32,40,48,56}</t>
@@ -234,19 +234,19 @@
     <t>m1009</t>
   </si>
   <si>
-    <t>12AK楼</t>
+    <t>Base_12AK</t>
   </si>
   <si>
-    <t>p1010</t>
+    <t>icon_12AK</t>
   </si>
   <si>
     <t>m1010</t>
   </si>
   <si>
-    <t>16AK楼</t>
+    <t>Base_16AK</t>
   </si>
   <si>
-    <t>p1011</t>
+    <t>icon_16AK</t>
   </si>
   <si>
     <t>{32,40,48,56,72}</t>
@@ -255,10 +255,10 @@
     <t>m1011</t>
   </si>
   <si>
-    <t>4A连楼</t>
+    <t>Base_4Alink</t>
   </si>
   <si>
-    <t>p1012</t>
+    <t>icon_4Alink</t>
   </si>
   <si>
     <t>{48,64,72,80,88}</t>
@@ -267,10 +267,10 @@
     <t>m1012</t>
   </si>
   <si>
-    <t>9A4A连楼</t>
+    <t>Base_9A4Alink</t>
   </si>
   <si>
-    <t>p1013</t>
+    <t>icon_9A4Alink</t>
   </si>
   <si>
     <t>{80,96,112,128,136}</t>
@@ -279,10 +279,10 @@
     <t>m1013</t>
   </si>
   <si>
-    <t>9A连楼</t>
+    <t>Base_9Alink</t>
   </si>
   <si>
-    <t>p1014</t>
+    <t>icon_9Alink</t>
   </si>
   <si>
     <t>{96,112,128,152,160}</t>
@@ -291,10 +291,10 @@
     <t>m1014</t>
   </si>
   <si>
-    <t>10A连楼</t>
+    <t>Base_10Alink</t>
   </si>
   <si>
-    <t>p1015</t>
+    <t>icon_10Alink</t>
   </si>
   <si>
     <t>{32,48,64,72,80}</t>
@@ -308,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -330,14 +330,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,7 +351,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,62 +373,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,7 +396,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,6 +410,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -460,16 +427,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -482,7 +482,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +518,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +566,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,13 +608,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,43 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,84 +663,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,6 +685,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -696,15 +731,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,7 +754,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,32 +773,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,133 +793,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:XEZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:O20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
